--- a/Grout Stats/CI-PRO-001_REG-001 ROTURA DE GROUT 007.xlsx
+++ b/Grout Stats/CI-PRO-001_REG-001 ROTURA DE GROUT 007.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Powerchina\Tecnopilotes\Registros de Calidad\07 AG-10 (01-02-26)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F5AA868-41E2-40B8-BE2D-7DECB3898130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4C6D947-7885-433F-99F4-E14E0767261A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="49">
   <si>
     <t xml:space="preserve"> 
 </t>
@@ -160,18 +160,6 @@
 </t>
   </si>
   <si>
-    <t>TE-118</t>
-  </si>
-  <si>
-    <t>TE-119</t>
-  </si>
-  <si>
-    <t>TE-120</t>
-  </si>
-  <si>
-    <t>TE-121</t>
-  </si>
-  <si>
     <t>DISEÑO, PROVISION, TRANSPORTE, MONTAJE, INSTALACION, PRUEBAS Y PUESTA EN MARCHA DE AEROGENERADORES PARA EL PROYECTO PARQUE EOLICO WARNES II - SANTA CRUZ</t>
   </si>
   <si>
@@ -224,6 +212,36 @@
   </si>
   <si>
     <t>TE-0146</t>
+  </si>
+  <si>
+    <t>TE-153</t>
+  </si>
+  <si>
+    <t>TE-147</t>
+  </si>
+  <si>
+    <t>TE-148</t>
+  </si>
+  <si>
+    <t>TE-149</t>
+  </si>
+  <si>
+    <t>TE-150</t>
+  </si>
+  <si>
+    <t>TE-151</t>
+  </si>
+  <si>
+    <t>TE-152</t>
+  </si>
+  <si>
+    <t>TE-154</t>
+  </si>
+  <si>
+    <t>TE-155</t>
+  </si>
+  <si>
+    <t>TE-156</t>
   </si>
 </sst>
 </file>
@@ -862,7 +880,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -983,6 +1001,141 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="7" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="distributed" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="distributed" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="distributed" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="distributed" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="distributed"/>
     </xf>
@@ -1019,139 +1172,7 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="distributed" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="distributed"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="distributed"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="distributed"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="distributed" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="distributed" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="distributed" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="distributed"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="distributed"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="distributed"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="distributed"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="distributed"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="distributed"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="distributed"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="distributed"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="7" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="distributed"/>
     </xf>
   </cellXfs>
@@ -1742,8 +1763,8 @@
   </sheetPr>
   <dimension ref="A1:T29"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" view="pageBreakPreview" topLeftCell="D7" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="49" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12:T13"/>
+    <sheetView tabSelected="1" showRuler="0" view="pageBreakPreview" topLeftCell="D13" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="49" workbookViewId="0">
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="13.8"/>
@@ -1767,11 +1788,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="24.75" customHeight="1">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
       <c r="D1" s="82" t="s">
         <v>25</v>
       </c>
@@ -1785,14 +1806,14 @@
       <c r="L1" s="83"/>
       <c r="M1" s="84"/>
       <c r="N1" s="91" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="O1" s="92"/>
     </row>
     <row r="2" spans="1:20" ht="28.5" customHeight="1">
-      <c r="A2" s="64"/>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
       <c r="D2" s="85"/>
       <c r="E2" s="86"/>
       <c r="F2" s="86"/>
@@ -1807,9 +1828,9 @@
       <c r="O2" s="94"/>
     </row>
     <row r="3" spans="1:20" ht="43.5" customHeight="1">
-      <c r="A3" s="64"/>
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
+      <c r="A3" s="66"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
       <c r="D3" s="88"/>
       <c r="E3" s="89"/>
       <c r="F3" s="89"/>
@@ -1824,34 +1845,34 @@
       <c r="O3" s="94"/>
     </row>
     <row r="4" spans="1:20" ht="35.25" customHeight="1">
-      <c r="A4" s="95" t="s">
+      <c r="A4" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="96"/>
-      <c r="C4" s="97" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="98"/>
-      <c r="E4" s="98"/>
-      <c r="F4" s="98"/>
-      <c r="G4" s="98"/>
-      <c r="H4" s="98"/>
-      <c r="I4" s="98"/>
-      <c r="J4" s="98"/>
-      <c r="K4" s="98"/>
-      <c r="L4" s="98"/>
-      <c r="M4" s="98"/>
-      <c r="N4" s="98"/>
-      <c r="O4" s="99"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="55" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="56"/>
+      <c r="N4" s="56"/>
+      <c r="O4" s="57"/>
     </row>
     <row r="5" spans="1:20" ht="34.5" customHeight="1" thickBot="1">
-      <c r="A5" s="100" t="s">
+      <c r="A5" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="101"/>
-      <c r="C5" s="101"/>
-      <c r="D5" s="101"/>
-      <c r="E5" s="101"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
       <c r="F5" s="76" t="s">
         <v>24</v>
       </c>
@@ -1868,77 +1889,77 @@
       <c r="O5" s="81"/>
     </row>
     <row r="6" spans="1:20" ht="28.5" customHeight="1">
-      <c r="A6" s="74" t="s">
+      <c r="A6" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="74" t="s">
+      <c r="B6" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="102" t="s">
+      <c r="C6" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="103"/>
-      <c r="E6" s="74" t="s">
+      <c r="D6" s="61"/>
+      <c r="E6" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="74" t="s">
+      <c r="F6" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="74" t="s">
+      <c r="G6" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="74" t="s">
+      <c r="H6" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="74" t="s">
+      <c r="I6" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="74" t="s">
+      <c r="J6" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="K6" s="74" t="s">
+      <c r="K6" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="L6" s="74" t="s">
+      <c r="L6" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="M6" s="74" t="s">
+      <c r="M6" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="N6" s="74" t="s">
+      <c r="N6" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="O6" s="74" t="s">
+      <c r="O6" s="51" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="36.75" customHeight="1" thickBot="1">
-      <c r="A7" s="75"/>
-      <c r="B7" s="75"/>
-      <c r="C7" s="104"/>
-      <c r="D7" s="105"/>
-      <c r="E7" s="75"/>
-      <c r="F7" s="75"/>
-      <c r="G7" s="75"/>
-      <c r="H7" s="75"/>
-      <c r="I7" s="75"/>
-      <c r="J7" s="75"/>
-      <c r="K7" s="75"/>
-      <c r="L7" s="75"/>
-      <c r="M7" s="75"/>
-      <c r="N7" s="75"/>
-      <c r="O7" s="75"/>
+      <c r="A7" s="52"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="52"/>
+      <c r="N7" s="52"/>
+      <c r="O7" s="52"/>
       <c r="Q7" s="5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="R7" s="5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="S7" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="T7" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="39.75" customHeight="1">
@@ -1946,12 +1967,12 @@
         <v>1</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" s="50" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="51"/>
+        <v>34</v>
+      </c>
+      <c r="C8" s="95" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="96"/>
       <c r="E8" s="24" t="s">
         <v>17</v>
       </c>
@@ -2010,12 +2031,12 @@
         <v>2</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="50" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="51"/>
+        <v>35</v>
+      </c>
+      <c r="C9" s="95" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="96"/>
       <c r="E9" s="24" t="s">
         <v>17</v>
       </c>
@@ -2026,7 +2047,7 @@
         <v>46055</v>
       </c>
       <c r="H9" s="26">
-        <f t="shared" ref="H9:H21" si="0">+G9-F9</f>
+        <f t="shared" ref="H9:H18" si="0">+G9-F9</f>
         <v>1</v>
       </c>
       <c r="I9" s="24">
@@ -2045,11 +2066,11 @@
         <v>187.8</v>
       </c>
       <c r="N9" s="36">
-        <f t="shared" ref="N9:N21" si="1">+(M9*1000)/(I9*J9)</f>
+        <f t="shared" ref="N9:N16" si="1">+(M9*1000)/(I9*J9)</f>
         <v>75.12</v>
       </c>
       <c r="O9" s="45">
-        <f t="shared" ref="O9:O21" si="2">+N9/100</f>
+        <f t="shared" ref="O9:O16" si="2">+N9/100</f>
         <v>0.75120000000000009</v>
       </c>
     </row>
@@ -2058,12 +2079,12 @@
         <v>3</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" s="50" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="51"/>
+        <v>36</v>
+      </c>
+      <c r="C10" s="95" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="96"/>
       <c r="E10" s="24" t="s">
         <v>17</v>
       </c>
@@ -2106,12 +2127,12 @@
         <v>4</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="51"/>
+      <c r="C11" s="95" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="96"/>
       <c r="E11" s="24" t="s">
         <v>17</v>
       </c>
@@ -2154,12 +2175,12 @@
         <v>5</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="50" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="51"/>
+        <v>38</v>
+      </c>
+      <c r="C12" s="95" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="96"/>
       <c r="E12" s="24" t="s">
         <v>17</v>
       </c>
@@ -2197,16 +2218,16 @@
         <v>0.73959999999999992</v>
       </c>
       <c r="Q12" s="5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="R12" s="5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="S12" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="T12" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="39.75" customHeight="1">
@@ -2214,12 +2235,12 @@
         <v>6</v>
       </c>
       <c r="B13" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="54" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="55"/>
+        <v>40</v>
+      </c>
+      <c r="C13" s="99" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="100"/>
       <c r="E13" s="30" t="s">
         <v>17</v>
       </c>
@@ -2278,12 +2299,12 @@
         <v>7</v>
       </c>
       <c r="B14" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="54" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" s="55"/>
+        <v>41</v>
+      </c>
+      <c r="C14" s="99" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="100"/>
       <c r="E14" s="30" t="s">
         <v>17</v>
       </c>
@@ -2312,7 +2333,7 @@
       <c r="M14" s="35">
         <v>229</v>
       </c>
-      <c r="N14" s="106">
+      <c r="N14" s="50">
         <f t="shared" si="1"/>
         <v>91.6</v>
       </c>
@@ -2326,12 +2347,12 @@
         <v>8</v>
       </c>
       <c r="B15" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="54" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="55"/>
+        <v>42</v>
+      </c>
+      <c r="C15" s="99" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="100"/>
       <c r="E15" s="30" t="s">
         <v>17</v>
       </c>
@@ -2374,12 +2395,12 @@
         <v>9</v>
       </c>
       <c r="B16" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="54" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" s="55"/>
+        <v>43</v>
+      </c>
+      <c r="C16" s="99" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="100"/>
       <c r="E16" s="30" t="s">
         <v>17</v>
       </c>
@@ -2418,12 +2439,16 @@
       </c>
     </row>
     <row r="17" spans="1:20" ht="39.75" customHeight="1">
-      <c r="A17" s="29"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="54" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" s="55"/>
+      <c r="A17" s="29">
+        <v>10</v>
+      </c>
+      <c r="B17" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="99" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="100"/>
       <c r="E17" s="30" t="s">
         <v>17</v>
       </c>
@@ -2453,21 +2478,37 @@
         <v>211.6</v>
       </c>
       <c r="N17" s="37">
-        <f t="shared" ref="N17:N18" si="3">+(M17*1000)/(I17*J17)</f>
+        <f t="shared" ref="N17:N21" si="3">+(M17*1000)/(I17*J17)</f>
         <v>84.64</v>
       </c>
       <c r="O17" s="46">
-        <f t="shared" ref="O17:O18" si="4">+N17/100</f>
+        <f t="shared" ref="O17:O21" si="4">+N17/100</f>
         <v>0.84640000000000004</v>
+      </c>
+      <c r="Q17" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="R17" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="S17" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="T17" s="5" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:20" ht="39.75" customHeight="1">
-      <c r="A18" s="29"/>
-      <c r="B18" s="30"/>
-      <c r="C18" s="54" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" s="55"/>
+      <c r="A18" s="29">
+        <v>11</v>
+      </c>
+      <c r="B18" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="99" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="100"/>
       <c r="E18" s="30" t="s">
         <v>17</v>
       </c>
@@ -2504,108 +2545,220 @@
         <f t="shared" si="4"/>
         <v>0.86120000000000008</v>
       </c>
-      <c r="Q18" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="R18" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="S18" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="T18" s="5" t="s">
-        <v>34</v>
+      <c r="Q18" s="41">
+        <f>+AVERAGE(N19:N22)</f>
+        <v>101.56</v>
+      </c>
+      <c r="R18" s="5">
+        <f>+STDEVA(N19:N22)</f>
+        <v>5.7081929423125404</v>
+      </c>
+      <c r="S18" s="41">
+        <f>+Q18-R18</f>
+        <v>95.851807057687466</v>
+      </c>
+      <c r="T18" s="41">
+        <f>+Q18+R18</f>
+        <v>107.26819294231254</v>
       </c>
     </row>
     <row r="19" spans="1:20" ht="39.75" customHeight="1">
-      <c r="A19" s="23"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="50"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="27"/>
-      <c r="L19" s="27"/>
-      <c r="M19" s="39"/>
-      <c r="N19" s="44"/>
-      <c r="O19" s="45"/>
-      <c r="Q19" s="41">
-        <f>+AVERAGE(N17:N21)</f>
-        <v>85.38</v>
-      </c>
-      <c r="R19" s="5">
-        <f>+STDEVA(N17:N21)</f>
-        <v>1.0465180361560931</v>
-      </c>
-      <c r="S19" s="41">
-        <f>+Q19-R19</f>
-        <v>84.333481963843909</v>
-      </c>
-      <c r="T19" s="41">
-        <f>+Q19+R19</f>
-        <v>86.426518036156082</v>
+      <c r="A19" s="23">
+        <v>12</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="95" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="96"/>
+      <c r="E19" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="25">
+        <v>46054</v>
+      </c>
+      <c r="G19" s="38">
+        <v>46062</v>
+      </c>
+      <c r="H19" s="26">
+        <f>+G19-F19</f>
+        <v>8</v>
+      </c>
+      <c r="I19" s="24">
+        <v>50</v>
+      </c>
+      <c r="J19" s="24">
+        <v>50</v>
+      </c>
+      <c r="K19" s="24">
+        <v>50</v>
+      </c>
+      <c r="L19" s="27">
+        <v>322</v>
+      </c>
+      <c r="M19" s="39">
+        <v>246.5</v>
+      </c>
+      <c r="N19" s="107">
+        <f t="shared" si="3"/>
+        <v>98.6</v>
+      </c>
+      <c r="O19" s="45">
+        <f t="shared" si="4"/>
+        <v>0.98599999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:20" ht="39.75" customHeight="1">
-      <c r="A20" s="23"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="50"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="27"/>
-      <c r="M20" s="39"/>
-      <c r="N20" s="40"/>
-      <c r="O20" s="45"/>
+      <c r="A20" s="23">
+        <v>13</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="95" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="96"/>
+      <c r="E20" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" s="25">
+        <v>46054</v>
+      </c>
+      <c r="G20" s="38">
+        <v>46062</v>
+      </c>
+      <c r="H20" s="26">
+        <f t="shared" ref="H20:H22" si="5">+G20-F20</f>
+        <v>8</v>
+      </c>
+      <c r="I20" s="24">
+        <v>50</v>
+      </c>
+      <c r="J20" s="24">
+        <v>50</v>
+      </c>
+      <c r="K20" s="24">
+        <v>50</v>
+      </c>
+      <c r="L20" s="27">
+        <v>321</v>
+      </c>
+      <c r="M20" s="39">
+        <v>272.8</v>
+      </c>
+      <c r="N20" s="44">
+        <f t="shared" si="3"/>
+        <v>109.12</v>
+      </c>
+      <c r="O20" s="45">
+        <f t="shared" si="4"/>
+        <v>1.0911999999999999</v>
+      </c>
     </row>
     <row r="21" spans="1:20" ht="39.75" customHeight="1">
-      <c r="A21" s="23"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="50"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="27"/>
-      <c r="L21" s="27"/>
-      <c r="M21" s="39"/>
-      <c r="N21" s="40"/>
-      <c r="O21" s="45"/>
+      <c r="A21" s="23">
+        <v>14</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="95" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="96"/>
+      <c r="E21" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" s="25">
+        <v>46054</v>
+      </c>
+      <c r="G21" s="38">
+        <v>46062</v>
+      </c>
+      <c r="H21" s="26">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="I21" s="24">
+        <v>50</v>
+      </c>
+      <c r="J21" s="24">
+        <v>50</v>
+      </c>
+      <c r="K21" s="24">
+        <v>50</v>
+      </c>
+      <c r="L21" s="27">
+        <v>312</v>
+      </c>
+      <c r="M21" s="39">
+        <v>256.3</v>
+      </c>
+      <c r="N21" s="40">
+        <f t="shared" si="3"/>
+        <v>102.52</v>
+      </c>
+      <c r="O21" s="45">
+        <f t="shared" si="4"/>
+        <v>1.0251999999999999</v>
+      </c>
     </row>
     <row r="22" spans="1:20" ht="39.75" customHeight="1">
-      <c r="A22" s="3"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="52"/>
-      <c r="D22" s="53"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="15"/>
-      <c r="M22" s="16"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="47"/>
+      <c r="A22" s="23">
+        <v>15</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="95" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="96"/>
+      <c r="E22" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="25">
+        <v>46054</v>
+      </c>
+      <c r="G22" s="38">
+        <v>46062</v>
+      </c>
+      <c r="H22" s="26">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="I22" s="24">
+        <v>50</v>
+      </c>
+      <c r="J22" s="24">
+        <v>50</v>
+      </c>
+      <c r="K22" s="24">
+        <v>50</v>
+      </c>
+      <c r="L22" s="27">
+        <v>318</v>
+      </c>
+      <c r="M22" s="39">
+        <v>240</v>
+      </c>
+      <c r="N22" s="40">
+        <f t="shared" ref="N22" si="6">+(M22*1000)/(I22*J22)</f>
+        <v>96</v>
+      </c>
+      <c r="O22" s="45">
+        <f t="shared" ref="O22" si="7">+N22/100</f>
+        <v>0.96</v>
+      </c>
     </row>
     <row r="23" spans="1:20" ht="39.75" customHeight="1" thickBot="1">
       <c r="A23" s="3"/>
       <c r="B23" s="4"/>
-      <c r="C23" s="52"/>
-      <c r="D23" s="53"/>
+      <c r="C23" s="97"/>
+      <c r="D23" s="98"/>
       <c r="E23" s="21"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
@@ -2619,61 +2772,61 @@
       <c r="O23" s="47"/>
     </row>
     <row r="24" spans="1:20" ht="39.75" customHeight="1">
-      <c r="A24" s="66" t="s">
-        <v>35</v>
-      </c>
-      <c r="B24" s="67"/>
-      <c r="C24" s="67"/>
-      <c r="D24" s="67"/>
-      <c r="E24" s="67"/>
-      <c r="F24" s="67"/>
-      <c r="G24" s="67"/>
-      <c r="H24" s="67"/>
-      <c r="I24" s="67"/>
-      <c r="J24" s="67"/>
-      <c r="K24" s="67"/>
-      <c r="L24" s="67"/>
-      <c r="M24" s="68"/>
-      <c r="N24" s="68"/>
-      <c r="O24" s="69"/>
+      <c r="A24" s="68" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="69"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="69"/>
+      <c r="H24" s="69"/>
+      <c r="I24" s="69"/>
+      <c r="J24" s="69"/>
+      <c r="K24" s="69"/>
+      <c r="L24" s="69"/>
+      <c r="M24" s="70"/>
+      <c r="N24" s="70"/>
+      <c r="O24" s="71"/>
     </row>
     <row r="25" spans="1:20" ht="30" customHeight="1" thickBot="1">
-      <c r="A25" s="70"/>
-      <c r="B25" s="71"/>
-      <c r="C25" s="71"/>
-      <c r="D25" s="71"/>
-      <c r="E25" s="71"/>
-      <c r="F25" s="71"/>
-      <c r="G25" s="71"/>
-      <c r="H25" s="71"/>
-      <c r="I25" s="71"/>
-      <c r="J25" s="71"/>
-      <c r="K25" s="71"/>
-      <c r="L25" s="71"/>
-      <c r="M25" s="72"/>
-      <c r="N25" s="72"/>
-      <c r="O25" s="73"/>
+      <c r="A25" s="72"/>
+      <c r="B25" s="73"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="73"/>
+      <c r="H25" s="73"/>
+      <c r="I25" s="73"/>
+      <c r="J25" s="73"/>
+      <c r="K25" s="73"/>
+      <c r="L25" s="73"/>
+      <c r="M25" s="74"/>
+      <c r="N25" s="74"/>
+      <c r="O25" s="75"/>
     </row>
     <row r="26" spans="1:20" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="A26" s="59" t="s">
+      <c r="A26" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="B26" s="60"/>
-      <c r="C26" s="60"/>
-      <c r="D26" s="60"/>
-      <c r="E26" s="60"/>
-      <c r="F26" s="60"/>
-      <c r="G26" s="60"/>
-      <c r="H26" s="60"/>
-      <c r="I26" s="61"/>
-      <c r="J26" s="56" t="s">
+      <c r="B26" s="105"/>
+      <c r="C26" s="105"/>
+      <c r="D26" s="105"/>
+      <c r="E26" s="105"/>
+      <c r="F26" s="105"/>
+      <c r="G26" s="105"/>
+      <c r="H26" s="105"/>
+      <c r="I26" s="106"/>
+      <c r="J26" s="101" t="s">
         <v>3</v>
       </c>
-      <c r="K26" s="57"/>
-      <c r="L26" s="57"/>
-      <c r="M26" s="57"/>
-      <c r="N26" s="57"/>
-      <c r="O26" s="58"/>
+      <c r="K26" s="102"/>
+      <c r="L26" s="102"/>
+      <c r="M26" s="102"/>
+      <c r="N26" s="102"/>
+      <c r="O26" s="103"/>
       <c r="P26" s="14"/>
       <c r="Q26" s="14"/>
     </row>
@@ -2775,16 +2928,21 @@
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <mergeCells count="41">
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:O4"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="C6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="J26:O26"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="A26:I26"/>
     <mergeCell ref="A1:C3"/>
     <mergeCell ref="A24:O25"/>
     <mergeCell ref="A6:A7"/>
@@ -2801,21 +2959,16 @@
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="J26:O26"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="A26:I26"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:O4"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="C6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="M6:M7"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
